--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/10/seed3/result_data_KNN.xlsx
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.998</v>
+        <v>13.377</v>
       </c>
     </row>
     <row r="8">
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.986</v>
+        <v>-20.926</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.136</v>
+        <v>-21.694</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -658,7 +658,7 @@
         <v>-13.63</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.239999999999998</v>
+        <v>-7.831999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>12.56</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.136</v>
+        <v>-21.694</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.432</v>
+        <v>12.932</v>
       </c>
     </row>
     <row r="21">
